--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22702"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\Projeto-mit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{271B398A-CFD6-4D2C-942B-4D86B21F5852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9921E940-7B34-42AD-B9D2-277AF4EDED2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alunos" sheetId="4" r:id="rId1"/>
     <sheet name="BACKLOG" sheetId="1" r:id="rId2"/>
     <sheet name="Informações" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -191,7 +189,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000000"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,13 +639,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -655,7 +653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
@@ -663,7 +661,7 @@
         <v>1201083</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -671,7 +669,7 @@
         <v>1201075</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
@@ -679,7 +677,7 @@
         <v>1201104</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -687,7 +685,7 @@
         <v>1201102</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
@@ -695,7 +693,7 @@
         <v>1201103</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
@@ -703,7 +701,7 @@
         <v>1201025</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
@@ -711,7 +709,7 @@
         <v>1201046</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
@@ -727,25 +725,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:E26"/>
+  <dimension ref="B1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="115.85546875" customWidth="1"/>
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:5">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
@@ -757,7 +755,7 @@
       </c>
       <c r="E2" s="13"/>
     </row>
-    <row r="3" spans="2:5">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="8"/>
       <c r="C3" s="7" t="s">
         <v>14</v>
@@ -769,7 +767,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:5">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="8"/>
       <c r="C4" s="7" t="s">
         <v>17</v>
@@ -781,7 +779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="8"/>
       <c r="C5" s="7" t="s">
         <v>19</v>
@@ -793,7 +791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="1" t="s">
         <v>20</v>
@@ -805,7 +803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="8"/>
       <c r="C7" s="1" t="s">
         <v>21</v>
@@ -817,7 +815,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
         <v>22</v>
@@ -829,7 +827,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="8"/>
       <c r="C9" s="1" t="s">
         <v>23</v>
@@ -841,7 +839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="8"/>
       <c r="C10" s="1" t="s">
         <v>25</v>
@@ -853,7 +851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
       <c r="C11" s="1" t="s">
         <v>26</v>
@@ -865,7 +863,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:5">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="8"/>
       <c r="C12" s="1" t="s">
         <v>27</v>
@@ -877,7 +875,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="2:5">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="8"/>
       <c r="C13" s="1" t="s">
         <v>28</v>
@@ -889,7 +887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:5">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="8"/>
       <c r="C14" s="1" t="s">
         <v>30</v>
@@ -901,7 +899,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:5">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="8"/>
       <c r="C15" s="1" t="s">
         <v>31</v>
@@ -913,7 +911,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="2:5">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="8"/>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -925,7 +923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:5">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="8"/>
       <c r="C17" s="1" t="s">
         <v>33</v>
@@ -937,7 +935,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:5">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="8"/>
       <c r="C18" s="1" t="s">
         <v>34</v>
@@ -949,7 +947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:5">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
       <c r="C19" s="1" t="s">
         <v>35</v>
@@ -961,7 +959,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="8"/>
       <c r="C20" s="1" t="s">
         <v>36</v>
@@ -973,7 +971,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="8"/>
       <c r="C21" s="8" t="s">
         <v>37</v>
@@ -985,7 +983,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:5">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="8"/>
       <c r="C22" s="10" t="s">
         <v>38</v>
@@ -997,7 +995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:5">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
       <c r="C23" s="12" t="s">
         <v>39</v>
@@ -1009,7 +1007,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:5">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="12" t="s">
         <v>40</v>
@@ -1021,7 +1019,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:5">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="12" t="s">
@@ -1031,9 +1029,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:5">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D26" s="11"/>
       <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1048,47 +1051,47 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="41.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:2">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>48</v>
       </c>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Desktop\Projeto-mit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefany\Documents\teste nesse inferno\Projeto-mit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9921E940-7B34-42AD-B9D2-277AF4EDED2E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C7EA46-B101-487E-BAF4-0A35B12616AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,9 +155,6 @@
     <t>O sensor deve identificar se a lixeira está vazia, média ou cheia;</t>
   </si>
   <si>
-    <t>O produto físico deve possuir um local na lixeira reservado para publicidade;</t>
-  </si>
-  <si>
     <t xml:space="preserve">site- cadastro e login </t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>o que vamos precisar para colocar em prática</t>
+  </si>
+  <si>
+    <t>O produto físico deve possuir um local na lixeira reservado para publicidade.</t>
   </si>
 </sst>
 </file>
@@ -728,7 +728,7 @@
   <dimension ref="B1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1010,7 @@
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="12"/>
       <c r="C24" s="12" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>15</v>
@@ -1058,42 +1058,42 @@
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stefany\Documents\teste nesse inferno\Projeto-mit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Documents\projeto\Projeto-mit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C7EA46-B101-487E-BAF4-0A35B12616AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F878466D-11A8-4C3A-8A58-7C5B9BB21660}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -179,7 +179,7 @@
     <t>o que vamos precisar para colocar em prática</t>
   </si>
   <si>
-    <t>O produto físico deve possuir um local na lixeira reservado para publicidade.</t>
+    <t>O produto físico deve possuir um local na lixeira reservado para publicidade;</t>
   </si>
 </sst>
 </file>
